--- a/MC_P/MC_P/Assets/04_TableDatas/test.xlsx
+++ b/MC_P/MC_P/Assets/04_TableDatas/test.xlsx
@@ -16,13 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>test001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +389,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -401,13 +413,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MC_P/MC_P/Assets/04_TableDatas/test.xlsx
+++ b/MC_P/MC_P/Assets/04_TableDatas/test.xlsx
@@ -16,13 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>test001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test0014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +389,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -387,13 +399,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
